--- a/pyfeng/data/sabr_benchmark.xlsx
+++ b/pyfeng/data/sabr_benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyFENG\pyfeng\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAC132-A74F-4F57-9743-AA43A0748417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB8831-753F-44B7-96A9-439983A696AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="743" firstSheet="1" activeTab="1" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="16560" tabRatio="743" xr2:uid="{CFD8C97F-677E-4081-BE35-9D7DB797B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="7" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <sheet name="27" sheetId="30" r:id="rId28"/>
     <sheet name="28" sheetId="25" r:id="rId29"/>
     <sheet name="29" sheetId="26" r:id="rId30"/>
+    <sheet name="30" sheetId="31" r:id="rId31"/>
+    <sheet name="31" sheetId="32" r:id="rId32"/>
+    <sheet name="32" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>sigma</t>
   </si>
@@ -197,6 +200,18 @@
   <si>
     <t>Strike</t>
   </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Case 2, Choi &amp; Seo (2023)</t>
+  </si>
+  <si>
+    <t>Case 3, Choi &amp; Seo (2023)</t>
+  </si>
+  <si>
+    <t>Case 1, Choi &amp; Seo (2023). Same as Case 23 rescaled by 10000</t>
+  </si>
 </sst>
 </file>
 
@@ -241,17 +256,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -567,18 +579,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584B610-149E-4DFB-B94E-F604CBCB4976}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -607,669 +619,669 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>-0.8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="str" cm="1">
+      <c r="H2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT(A2&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f t="shared" ref="I2:I14" si="0">"Table " &amp; A2 &amp; " in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350"</f>
         <v>Table 1 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <f t="shared" ref="A3:A19" si="1">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.25</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>-0.8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="str" cm="1">
+      <c r="H3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(A3&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 2 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.25</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>-0.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>10</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="str" cm="1">
+      <c r="H4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(A4&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 3 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.25</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="str" cm="1">
+      <c r="H5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(A5&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 4 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.25</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="str" cm="1">
+      <c r="H6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(A6&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 5 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.25</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.9</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>10</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="str" cm="1">
+      <c r="H7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT(A7&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 6 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.25</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="str" cm="1">
+      <c r="H8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT(A8&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 7 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.25</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.6</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>10</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="str" cm="1">
+      <c r="H9" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT(A9&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 8 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.25</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.9</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="str" cm="1">
+      <c r="H10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT(A10&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 9 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>-0.8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>20</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="str" cm="1">
+      <c r="H11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDIRECT(A11&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 10 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.3</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>-0.8</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>20</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="str" cm="1">
+      <c r="H12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT(A12&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 11 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.25</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>-0.8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.9</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>20</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="6" t="str" cm="1">
+      <c r="H13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDIRECT(A13&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 12 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.25</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>20</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="6" t="str" cm="1">
+      <c r="H14" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDIRECT(A14&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Table 13 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.25</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.6</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>20</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="6" t="str" cm="1">
+      <c r="H15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT(A15&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.25</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.9</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>20</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="6" t="str" cm="1">
+      <c r="H16" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDIRECT(A16&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f>"Table " &amp; A16 &amp; " in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350"</f>
         <v>Table 15 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.25</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>20</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="6" t="str" cm="1">
+      <c r="H17" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDIRECT(A17&amp;"!$B$1")</f>
         <v>IV MC</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f>"Table " &amp; A17 &amp; " in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350"</f>
         <v>Table 16 in Antonov &amp; Spector (2012). https://ssrn.com/abstract=2026350</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.6</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>20</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="6" t="str" cm="1">
+      <c r="H18" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT(A18&amp;"!$B$1")</f>
         <v>IV MC2</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.25</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>-0.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.9</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>20</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="H19" s="6" t="str" cm="1">
+      <c r="H19" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDIRECT(A19&amp;"!$B$1")</f>
         <v>IV MC2</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>0.4</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>0.6</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>0.3</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20">
         <v>0.05</v>
       </c>
-      <c r="H20" s="8" t="str" cm="1">
+      <c r="H20" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDIRECT(A20&amp;"!$B$1")</f>
         <v>P FDM</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.5</v>
       </c>
-      <c r="H21" s="6" t="str" cm="1">
+      <c r="H21" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDIRECT(A21&amp;"!$B$1")</f>
         <v>P ADI</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.8</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>-0.6</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>10</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H22" s="6" t="str" cm="1">
+      <c r="H22" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDIRECT(A22&amp;"!$B$1")</f>
         <v>P ADI</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1329,185 +1341,288 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0.2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>-0.75</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>0.25</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>1000</v>
       </c>
-      <c r="H25" s="5" t="str" cm="1">
+      <c r="H25" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDIRECT(A25&amp;"!$B$1")</f>
         <v>P</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>-0.75</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>1</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>1000</v>
       </c>
-      <c r="H26" s="5" t="str" cm="1">
+      <c r="H26" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDIRECT(A26&amp;"!$B$1")</f>
         <v>P</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>0.2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>-0.75</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>1000</v>
       </c>
-      <c r="H27" s="5" t="str" cm="1">
+      <c r="H27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDIRECT(A27&amp;"!$B$1")</f>
         <v>P</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>0.2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>-0.75</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>5</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>1000</v>
       </c>
-      <c r="H28" s="5" t="str" cm="1">
+      <c r="H28" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDIRECT(A28&amp;"!$B$1")</f>
         <v>P</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>0.2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>-0.75</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>10</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>1000</v>
       </c>
-      <c r="H29" s="5" t="str" cm="1">
+      <c r="H29" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDIRECT(A29&amp;"!$B$1")</f>
         <v>P</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.2</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>-0.75</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>50</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>1000</v>
       </c>
-      <c r="H30" s="5" t="str" cm="1">
+      <c r="H30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDIRECT(A30&amp;"!$B$1")</f>
         <v>P</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>350</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>-0.3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>350</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>-0.6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>350</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F34" s="3"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+      <c r="H37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,9 +1638,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -1567,7 +1682,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1599,7 +1714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1631,7 +1746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1663,7 +1778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1695,7 +1810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1727,7 +1842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1759,7 +1874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1791,7 +1906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1823,7 +1938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1855,7 +1970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1887,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -1919,7 +2034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -1951,7 +2066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -1983,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2015,7 +2130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2047,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2079,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2111,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2143,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2175,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2220,9 +2335,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -2264,7 +2379,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2296,7 +2411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2328,7 +2443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -2360,7 +2475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -2392,7 +2507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2424,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -2456,7 +2571,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -2488,7 +2603,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -2520,7 +2635,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -2552,7 +2667,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2584,7 +2699,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -2616,7 +2731,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -2648,7 +2763,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -2680,7 +2795,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -2712,7 +2827,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2744,7 +2859,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -2776,7 +2891,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -2808,7 +2923,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -2840,7 +2955,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -2872,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2917,9 +3032,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -2961,7 +3076,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2993,7 +3108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3025,7 +3140,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3057,7 +3172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3089,7 +3204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3121,7 +3236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3153,7 +3268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3185,7 +3300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -3217,7 +3332,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -3249,7 +3364,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3281,7 +3396,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -3313,7 +3428,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -3345,7 +3460,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -3377,7 +3492,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -3409,7 +3524,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -3441,7 +3556,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -3473,7 +3588,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -3505,7 +3620,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -3537,7 +3652,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -3569,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3614,9 +3729,9 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -3658,7 +3773,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -3690,7 +3805,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3722,7 +3837,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -3754,7 +3869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -3786,7 +3901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -3818,7 +3933,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -3850,7 +3965,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -3882,7 +3997,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -3914,7 +4029,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -3946,7 +4061,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3978,7 +4093,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4010,7 +4125,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4042,7 +4157,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4074,7 +4189,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4106,7 +4221,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4138,7 +4253,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4170,7 +4285,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -4202,7 +4317,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -4234,7 +4349,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -4266,7 +4381,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4311,9 +4426,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -4355,7 +4470,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -4387,7 +4502,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -4419,7 +4534,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4451,7 +4566,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4483,7 +4598,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4515,7 +4630,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4547,7 +4662,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4579,7 +4694,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4611,7 +4726,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4643,7 +4758,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4675,7 +4790,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -4707,7 +4822,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -4739,7 +4854,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -4771,7 +4886,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -4803,7 +4918,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -4835,7 +4950,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -4867,7 +4982,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -4899,7 +5014,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -4931,7 +5046,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -4963,7 +5078,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5008,9 +5123,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5052,7 +5167,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5084,7 +5199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5116,7 +5231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5148,7 +5263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5180,7 +5295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -5212,7 +5327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -5244,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -5276,7 +5391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -5308,7 +5423,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -5340,7 +5455,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5372,7 +5487,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -5404,7 +5519,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -5436,7 +5551,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -5468,7 +5583,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -5500,7 +5615,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -5532,7 +5647,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -5564,7 +5679,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -5596,7 +5711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -5628,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -5660,7 +5775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5705,9 +5820,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -5749,7 +5864,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5781,7 +5896,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -5813,7 +5928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -5845,7 +5960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -5877,7 +5992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -5909,7 +6024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -5941,7 +6056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -5973,7 +6088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6005,7 +6120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6037,7 +6152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6069,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6101,7 +6216,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6133,7 +6248,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6165,7 +6280,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -6197,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -6229,7 +6344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -6261,7 +6376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -6293,7 +6408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -6325,7 +6440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -6357,7 +6472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6402,9 +6517,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -6446,7 +6561,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -6478,7 +6593,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -6510,7 +6625,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -6542,7 +6657,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -6574,7 +6689,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -6606,7 +6721,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -6638,7 +6753,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -6670,7 +6785,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -6702,7 +6817,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -6734,7 +6849,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6766,7 +6881,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -6798,7 +6913,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -6830,7 +6945,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -6862,7 +6977,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -6894,7 +7009,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -6926,7 +7041,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -6958,7 +7073,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -6990,7 +7105,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7022,7 +7137,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7054,7 +7169,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7099,9 +7214,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -7146,7 +7261,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -7181,7 +7296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -7216,7 +7331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -7251,7 +7366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -7286,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -7321,7 +7436,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -7356,7 +7471,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -7391,7 +7506,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -7426,7 +7541,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -7461,7 +7576,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7496,7 +7611,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -7531,7 +7646,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -7566,7 +7681,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -7601,7 +7716,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -7636,7 +7751,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -7671,7 +7786,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -7706,7 +7821,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -7741,7 +7856,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -7776,7 +7891,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -7811,7 +7926,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7859,9 +7974,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -7906,7 +8021,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -7941,7 +8056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -7976,7 +8091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8011,7 +8126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8046,7 +8161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8081,7 +8196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8116,7 +8231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8151,7 +8266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -8186,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -8221,7 +8336,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8256,7 +8371,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -8291,7 +8406,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -8326,7 +8441,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -8361,7 +8476,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -8396,7 +8511,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -8431,7 +8546,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -8466,7 +8581,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -8501,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -8536,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -8571,7 +8686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8615,11 +8730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5761A8C7-5DBE-4514-94EE-A5933B58C928}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8655,7 +8772,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8687,7 +8804,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -8719,7 +8836,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -8751,7 +8868,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -8783,7 +8900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -8815,7 +8932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8847,7 +8964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -8879,7 +8996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -8911,7 +9028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -8943,7 +9060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8975,7 +9092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -9007,7 +9124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -9039,7 +9156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -9071,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -9103,7 +9220,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -9135,7 +9252,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -9167,7 +9284,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -9199,7 +9316,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -9231,7 +9348,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -9263,7 +9380,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9306,9 +9423,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9316,7 +9433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>0.4*0.05</f>
         <v>2.0000000000000004E-2</v>
@@ -9325,7 +9442,7 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>0.8*0.05</f>
         <v>4.0000000000000008E-2</v>
@@ -9334,7 +9451,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>1*0.05</f>
         <v>0.05</v>
@@ -9343,7 +9460,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>1.2*0.05</f>
         <v>0.06</v>
@@ -9352,7 +9469,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>1.6*0.05</f>
         <v>8.0000000000000016E-2</v>
@@ -9361,7 +9478,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>2*0.05</f>
         <v>0.1</v>
@@ -9381,9 +9498,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9391,7 +9508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>EXP(-0.1*SQRT(2))*0.5</f>
         <v>0.43406172269729243</v>
@@ -9400,7 +9517,7 @@
         <v>0.22138319683086599</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>1*0.5</f>
         <v>0.5</v>
@@ -9409,7 +9526,7 @@
         <v>0.193836689413803</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>EXP(0.1*SQRT(2))*0.5</f>
         <v>0.57595495508445449</v>
@@ -9429,9 +9546,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9439,7 +9556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>EXP(-0.1*SQRT(10))*0.07</f>
         <v>5.1022538987701718E-2</v>
@@ -9448,7 +9565,7 @@
         <v>5.2450313614407003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>1*0.07</f>
         <v>7.0000000000000007E-2</v>
@@ -9457,7 +9574,7 @@
         <v>4.6585753491306003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>EXP(0.1*SQRT(10))*0.07</f>
         <v>9.6035989137684394E-2</v>
@@ -9475,11 +9592,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66D6379-7DA9-4DAF-B878-C704AED1DA54}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9508,7 +9627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -9524,20 +9643,20 @@
       <c r="E2">
         <v>0.82669999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>0.18379999999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>0.18410000000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>0.18479999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>0.1217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.05</v>
       </c>
@@ -9553,20 +9672,20 @@
       <c r="E3">
         <v>0.78980000000000006</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>0.18229999999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>0.1827</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>0.18329999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>0.11940000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.1500000000000004</v>
       </c>
@@ -9582,20 +9701,20 @@
       <c r="E4">
         <v>0.71710000000000007</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>0.17960000000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>0.18</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>0.18049999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>0.1148</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.25</v>
       </c>
@@ -9611,20 +9730,20 @@
       <c r="E5">
         <v>0.64599999999999991</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.1772</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>0.17749999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.3499999999999996</v>
       </c>
@@ -9640,20 +9759,20 @@
       <c r="E6">
         <v>0.5766</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>0.1749</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>0.17480000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>0.17560000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>0.1056</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.45</v>
       </c>
@@ -9669,20 +9788,20 @@
       <c r="E7">
         <v>0.54520000000000002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0.17280000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>0.1731</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>0.1736</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>0.1075</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.55</v>
       </c>
@@ -9698,20 +9817,20 @@
       <c r="E8">
         <v>0.51559999999999995</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>0.1709</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>0.17119999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>0.17169999999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4.6500000000000004</v>
       </c>
@@ -9727,20 +9846,20 @@
       <c r="E9">
         <v>0.48760000000000003</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>0.16930000000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>0.1696</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>0.1701</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>0.1109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4.75</v>
       </c>
@@ -9756,20 +9875,20 @@
       <c r="E10">
         <v>0.46129999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0.1678</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>0.16869999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>0.1124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.8500000000000005</v>
       </c>
@@ -9785,20 +9904,20 @@
       <c r="E11">
         <v>0.4365</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>0.16639999999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>0.16669999999999999</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>0.16750000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>0.1138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.95</v>
       </c>
@@ -9814,20 +9933,20 @@
       <c r="E12">
         <v>0.41320000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>0.1653</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>0.16550000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>0.16639999999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>0.1152</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9843,16 +9962,16 @@
       <c r="E13">
         <v>0.40210000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>0.16470000000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>0.16600000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>0.1158</v>
       </c>
     </row>
@@ -9865,11 +9984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785B06B-5DDF-42E6-8931-E37266C6013C}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -9898,7 +10019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9914,20 +10035,20 @@
       <c r="E2">
         <v>2.1469999999999998</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>1.1040000000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>0.9778</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>0.54320000000000002</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>0.29549999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -9943,20 +10064,20 @@
       <c r="E3">
         <v>2.073</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>0.85040000000000004</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>0.82020000000000004</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>0.53149999999999997</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>0.2858</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -9972,20 +10093,20 @@
       <c r="E4">
         <v>2.0003000000000002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>0.76490000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>0.74639999999999995</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>0.52070000000000005</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>0.27679999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.3000000000000003</v>
       </c>
@@ -10001,20 +10122,20 @@
       <c r="E5">
         <v>1.9289000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.71089999999999998</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>0.69710000000000005</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>0.51080000000000003</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>0.26829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.4000000000000004</v>
       </c>
@@ -10030,20 +10151,20 @@
       <c r="E6">
         <v>1.8587</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>0.67130000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>0.66020000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>0.50170000000000003</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>0.26040000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.5000000000000004</v>
       </c>
@@ -10059,20 +10180,20 @@
       <c r="E7">
         <v>1.7899000000000003</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0.64019999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>0.63080000000000003</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>0.49340000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.5999999999999996</v>
       </c>
@@ -10088,20 +10209,20 @@
       <c r="E8">
         <v>1.7586999999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>0.61470000000000002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>0.60640000000000005</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>0.4859</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>0.25169999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.6999999999999997</v>
       </c>
@@ -10117,20 +10238,20 @@
       <c r="E9">
         <v>1.7288999999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>0.59319999999999995</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>0.58579999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>0.47910000000000003</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>0.25069999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -10146,20 +10267,20 @@
       <c r="E10">
         <v>1.7003000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0.57469999999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>0.56799999999999995</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>0.47299999999999998</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>0.24979999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -10175,20 +10296,20 @@
       <c r="E11">
         <v>1.6729999999999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>0.55869999999999997</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>0.5524</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>0.46750000000000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>0.24909999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10204,16 +10325,16 @@
       <c r="E12">
         <v>1.6469999999999998</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>0.54449999999999998</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>0.53869999999999996</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>0.2485</v>
       </c>
     </row>
@@ -10228,9 +10349,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10241,7 +10362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10252,7 +10373,7 @@
         <v>0.43173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10263,7 +10384,7 @@
         <v>0.30212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10274,7 +10395,7 @@
         <v>0.19869999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10285,33 +10406,33 @@
         <v>0.14935999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>1.8E-5</v>
       </c>
       <c r="C6">
         <v>0.16977999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>1.4700000000000001E-7</v>
       </c>
       <c r="C7">
         <v>0.19700999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>4.8099999999999997E-9</v>
       </c>
       <c r="C8">
@@ -10327,11 +10448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB38B7-9DF8-4B4C-AEF5-D2A443839C1C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10342,7 +10465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10353,7 +10476,7 @@
         <v>0.40655000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10364,7 +10487,7 @@
         <v>0.28815000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10375,7 +10498,7 @@
         <v>0.19349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10386,7 +10509,7 @@
         <v>0.14885999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10397,7 +10520,7 @@
         <v>0.16627</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10408,7 +10531,7 @@
         <v>0.18997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10430,9 +10553,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10443,7 +10566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10454,7 +10577,7 @@
         <v>0.37372</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10465,7 +10588,7 @@
         <v>0.26822000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10476,7 +10599,7 @@
         <v>0.18373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10487,7 +10610,7 @@
         <v>0.14358000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10498,7 +10621,7 @@
         <v>0.15745999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10509,7 +10632,7 @@
         <v>0.17724999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10531,9 +10654,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10544,7 +10667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10555,7 +10678,7 @@
         <v>0.29820999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10566,7 +10689,7 @@
         <v>0.2177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10577,7 +10700,7 @@
         <v>0.15304000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10588,7 +10711,7 @@
         <v>0.12148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10599,7 +10722,7 @@
         <v>0.13013</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10610,7 +10733,7 @@
         <v>0.14380999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10632,9 +10755,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10645,7 +10768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -10656,7 +10779,7 @@
         <v>0.22885</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -10667,7 +10790,7 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -10678,7 +10801,7 @@
         <v>0.11955</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -10689,7 +10812,7 @@
         <v>9.5509999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -10700,7 +10823,7 @@
         <v>0.10141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -10711,7 +10834,7 @@
         <v>0.11126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -10733,9 +10856,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -10777,7 +10900,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -10809,7 +10932,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -10841,7 +10964,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -10873,7 +10996,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -10905,7 +11028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -10937,7 +11060,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -10969,7 +11092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -11001,7 +11124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -11033,7 +11156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -11065,7 +11188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11097,7 +11220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -11129,7 +11252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -11161,7 +11284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -11193,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -11225,7 +11348,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -11257,7 +11380,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -11289,7 +11412,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -11321,7 +11444,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -11353,7 +11476,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -11385,7 +11508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -11430,9 +11553,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11443,7 +11566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -11454,7 +11577,7 @@
         <v>0.10552</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -11465,7 +11588,7 @@
         <v>7.7770000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -11476,7 +11599,7 @@
         <v>5.5489999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1250</v>
       </c>
@@ -11487,7 +11610,7 @@
         <v>4.4470000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -11498,7 +11621,7 @@
         <v>4.7079999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1750</v>
       </c>
@@ -11509,7 +11632,7 @@
         <v>5.1529999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -11522,6 +11645,292 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4D350-0BF0-455E-8B67-FCF66F04B01D}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>572.02432426999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>489.87873865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>414.2388598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>349.19489362000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>322.15532949999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>299.19489362000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>264.2388598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>600</v>
+      </c>
+      <c r="B9">
+        <v>239.87873865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>222.02432426999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3D790-BB77-4577-BEE6-4E9296543750}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>580.55474930000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>495.83602302000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>415.99302620999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>344.18593174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>312.81611550999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>285.36037649000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>243.03406385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>600</v>
+      </c>
+      <c r="B9">
+        <v>214.53419274000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>194.70110382999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36438560-CCC4-4FCC-A8E0-2457D704FAF5}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>569.44780020999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>481.51989931000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>397.02796374000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>318.22818044000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>282.24098647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>249.61469442000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>198.0204885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>600</v>
+      </c>
+      <c r="B9">
+        <v>165.13068946000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>144.45101294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11533,9 +11942,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -11577,7 +11986,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -11609,7 +12018,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -11641,7 +12050,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -11673,7 +12082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -11705,7 +12114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -11737,7 +12146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -11769,7 +12178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -11801,7 +12210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -11833,7 +12242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -11865,7 +12274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11897,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -11929,7 +12338,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -11961,7 +12370,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -11993,7 +12402,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -12025,7 +12434,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -12057,7 +12466,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -12089,7 +12498,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -12121,7 +12530,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -12153,7 +12562,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -12185,7 +12594,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12230,9 +12639,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -12274,7 +12683,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -12306,7 +12715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -12338,7 +12747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -12370,7 +12779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -12402,7 +12811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -12434,7 +12843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -12466,7 +12875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -12498,7 +12907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -12530,7 +12939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -12562,7 +12971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12594,7 +13003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -12626,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -12658,7 +13067,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -12690,7 +13099,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -12722,7 +13131,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -12754,7 +13163,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -12786,7 +13195,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -12818,7 +13227,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -12850,7 +13259,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -12882,7 +13291,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12927,9 +13336,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -12971,7 +13380,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -13003,7 +13412,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -13035,7 +13444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -13067,7 +13476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -13099,7 +13508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -13131,7 +13540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -13163,7 +13572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -13195,7 +13604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -13227,7 +13636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -13259,7 +13668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13291,7 +13700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -13323,7 +13732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -13355,7 +13764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -13387,7 +13796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -13419,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -13451,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -13483,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -13515,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -13547,7 +13956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -13579,7 +13988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13622,9 +14031,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -13666,7 +14075,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -13698,7 +14107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -13730,7 +14139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -13762,7 +14171,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -13794,7 +14203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -13826,7 +14235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -13858,7 +14267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -13890,7 +14299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -13922,7 +14331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -13954,7 +14363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13986,7 +14395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -14018,7 +14427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -14050,7 +14459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -14082,7 +14491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -14114,7 +14523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -14146,7 +14555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -14178,7 +14587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -14210,7 +14619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -14242,7 +14651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -14274,7 +14683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14319,9 +14728,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -14363,7 +14772,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -14395,7 +14804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14427,7 +14836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -14459,7 +14868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -14491,7 +14900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -14523,7 +14932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -14555,7 +14964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -14587,7 +14996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -14619,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -14651,7 +15060,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14683,7 +15092,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -14715,7 +15124,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -14747,7 +15156,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -14779,7 +15188,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -14811,7 +15220,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -14843,7 +15252,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -14875,7 +15284,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -14907,7 +15316,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -14939,7 +15348,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -14971,7 +15380,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15016,9 +15425,9 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'1'!A1</f>
         <v>Strike</v>
@@ -15060,7 +15469,7 @@
         <v>Bps Diff IV Hyb ZC Map</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -15092,7 +15501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -15124,7 +15533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -15156,7 +15565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -15188,7 +15597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -15220,7 +15629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -15252,7 +15661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -15284,7 +15693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -15316,7 +15725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -15348,7 +15757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15380,7 +15789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -15412,7 +15821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -15444,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -15476,7 +15885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -15508,7 +15917,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -15540,7 +15949,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.6</v>
       </c>
@@ -15572,7 +15981,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.7</v>
       </c>
@@ -15604,7 +16013,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -15636,7 +16045,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.9</v>
       </c>
@@ -15668,7 +16077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
